--- a/medicine/Hématologie/Chlorure_de_calcium/Chlorure_de_calcium.xlsx
+++ b/medicine/Hématologie/Chlorure_de_calcium/Chlorure_de_calcium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chlorure de calcium est le sel de calcium de l'acide chlorhydrique. 
@@ -518,15 +530,17 @@
           <t>Propriétés chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le chlorure de calcium peut servir de réservoir d'ions calcium en solution, par exemple pour séparer un autre ion par précipitation en utilisant le fait que de nombreux sels de calcium sont insolubles. La réaction suivante permet par exemple de séparer les ions phosphates en solution :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chlorure de calcium peut servir de réservoir d'ions calcium en solution, par exemple pour séparer un autre ion par précipitation en utilisant le fait que de nombreux sels de calcium sont insolubles. La réaction suivante permet par exemple de séparer les ions phosphates en solution :
 3 CaCl2(aq)  +  2 K3PO4(aq)  →  Ca3(PO4)2(s)  +  6 KCl(aq)
 Le chlorure de calcium fondu peut être électrolysé pour obtenir du calcium métal :
 CaCl2(l)  →  Ca(s)  +  Cl2(g)
 On peut le trouver dans la craie directement.
-Il a un goût amer[8].
-Solubilité aqueuse</t>
+Il a un goût amer.
+</t>
         </is>
       </c>
     </row>
@@ -554,7 +568,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlorure de calcium est un produit secondaire de la fabrication de carbonate de sodium par le procédé Solvay. Il peut également être préparé en faisant réagir de l'acide chlorhydrique et du carbonate de calcium :
 CaCO3(s)  +  2 HCl(aq) →  CaCl2(aq)  +  H2O(l)  +  CO2(g)
@@ -595,14 +611,16 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2020, la Chine est le premier producteur mondial avec 818 000 t/an suivie des États-Unis (129 000 t/an)[9]. En 1990, son cours était de 182 $/t. C'est un composé qui possède de nombreuses applications. Du fait de son caractère très hygroscopique, il peut être utilisé pour sécher l'air, d'autres gaz ou des liquides organiques ou des semences. Lorsqu'il absorbe l'eau ou la vapeur d'eau de la substance à sécher, il se transforme en saumure : CaCl2 + 2 H2O → CaCl2·2H2O. Le processus de dissolution du chlorure de calcium est très exothermique et des températures supérieures à 60 °C peuvent être atteintes rapidement. L'ingestion de pastilles de chlorure de calcium peut donc occasionner de graves brûlures.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2020, la Chine est le premier producteur mondial avec 818 000 t/an suivie des États-Unis (129 000 t/an). En 1990, son cours était de 182 $/t. C'est un composé qui possède de nombreuses applications. Du fait de son caractère très hygroscopique, il peut être utilisé pour sécher l'air, d'autres gaz ou des liquides organiques ou des semences. Lorsqu'il absorbe l'eau ou la vapeur d'eau de la substance à sécher, il se transforme en saumure : CaCl2 + 2 H2O → CaCl2·2H2O. Le processus de dissolution du chlorure de calcium est très exothermique et des températures supérieures à 60 °C peuvent être atteintes rapidement. L'ingestion de pastilles de chlorure de calcium peut donc occasionner de graves brûlures.
 Du fait de la chaleur émise lors du processus de dissolution, le chlorure de calcium peut être utilisé pour faire fondre de la glace. Il peut également agir à des températures plus basses que le chlorure de sodium. Pour cet usage, il se présente sous la forme de petites boules de quelques millimètres de diamètre (comme sur la photo au début de la page).
-Il est considéré comme moins toxique que le chlorure de sodium pour le sol et les plantes, mais il peut affecter la vie bactérienne du sol, et il a fait partie des herbicides homologués jusqu’au milieu des années 1950 (« Surtout efficace au stade végétatif et au moment du démarrage de la  végétation, l’emploi du sel comme herbicide de post - levée est décrit avec précision dans les ouvrages  de l’époque (Rabaté, 1933). Il pouvait être utilisé seul ou en association (de 33 à 60 % de sel suivant les  produits), par exemple avec du chlorate de soude pour le désherbage des moutardes sauvages et des  ravenelles ou pour du défanage. Le sel n’est plus cité comme produit homologué dans le premier index  de l’Acta en 1961 »[10] et il augmente la rapidité d'action de la simazine[11].
+Il est considéré comme moins toxique que le chlorure de sodium pour le sol et les plantes, mais il peut affecter la vie bactérienne du sol, et il a fait partie des herbicides homologués jusqu’au milieu des années 1950 (« Surtout efficace au stade végétatif et au moment du démarrage de la  végétation, l’emploi du sel comme herbicide de post - levée est décrit avec précision dans les ouvrages  de l’époque (Rabaté, 1933). Il pouvait être utilisé seul ou en association (de 33 à 60 % de sel suivant les  produits), par exemple avec du chlorate de soude pour le désherbage des moutardes sauvages et des  ravenelles ou pour du défanage. Le sel n’est plus cité comme produit homologué dans le premier index  de l’Acta en 1961 » et il augmente la rapidité d'action de la simazine.
 Il est utilisé lors du mélange du béton pour accélérer la prise. Il n'augmente pas la résistance finale. Il a comme inconvénient de corroder les armatures du béton armé.
 Il est utilisé sur certaines autoroutes pour fixer la poussière : en réagissant avec l'humidité de l'air, il permet de maintenir une fine couche liquide à la surface de la chaussée ce qui maintient la poussière.
-Il est utilisé en alimentaire, no E509, notamment pour solidifier les alginates, gélifiant. De plus, il est ajouté aux aliments cuisinés industriellement pour augmenter la dureté cellulaire de la nourriture (affermissant, stabilisant et épaississant[12]), comme dans les cornichons (croquant[13]), olives, compotes de pommes, haricot-princesse en bocaux.
+Il est utilisé en alimentaire, no E509, notamment pour solidifier les alginates, gélifiant. De plus, il est ajouté aux aliments cuisinés industriellement pour augmenter la dureté cellulaire de la nourriture (affermissant, stabilisant et épaississant), comme dans les cornichons (croquant), olives, compotes de pommes, haricot-princesse en bocaux.
 Il est aussi utilisé en biologie moléculaire, celui-ci permet en effet de rendre des bactéries compétentes en dégradant leurs lipopolysaccharides de surface. Il les rend ainsi apte à la transformation par un vecteur. Il peut aussi servir comme agent de transfection cellulaire avec des cellules animales.
 Les solutions de CaCl2 ont la propriété de rendre les parois cellulaires de certaines bactéries plus poreuses (notamment E. coli). Cela en fait un produit utilisé en laboratoire dans la recherche génétique.
 Le chlorure de calcium est utilisé pour sécher le varech (mélange d’algues) servant à la production de carbonate de sodium.
@@ -610,7 +628,7 @@
 Le chlorure de calcium est utilisé pour augmenter la dureté de l'eau dans les piscines. Cela réduit l'érosion du béton dans la piscine. Par le principe de Le Chatelier et l'effet d'ion commun, augmenter la concentration de calcium dans l'eau réduira la dissolution des composés à base de calcium présents dans le béton. [réf. nécessaire]
 Dans les aquariums marins, du chlorure de calcium est ajouté afin de fournir du calcium bio-disponible pour les animaux à coquille comme les mollusques et certains cnidaires. L'eau de chaux ou un réacteur à calcium peut être également utilisé pour introduire du calcium dans l'eau. Cependant, l'addition de chlorure de calcium est la méthode la plus rapide et est celle qui a le moins d'effet sur le pH.
 En agroalimentaire et alimentation :
-en tant qu'agent affermissant, le chlorure de calcium est utilisé pour les légumes en conserve, pour le lait de soja caillé dans le tofu et pour la production d'un substitut de caviar à partir de jus de légumes ou de fruits[14] ;
+en tant qu'agent affermissant, le chlorure de calcium est utilisé pour les légumes en conserve, pour le lait de soja caillé dans le tofu et pour la production d'un substitut de caviar à partir de jus de légumes ou de fruits ;
 il est communément utilisé comme électrolyte dans des boissons pour le sport et d'autres, y compris de l'eau en bouteille ;
 la propriété qu'a le chlorure de calcium d'abaisser les points de fusion est utilisée pour ralentir la solidification du caramel dans les barres chocolatées ;
 pour le brassage de la bière, le chlorure de calcium est parfois utilisé pour combler les insuffisances en minéraux de l'eau de brassage. Il affecte le goût et les réactions chimiques durant le brassage, et peut également affecter l'action de la levure durant la fermentation ;
@@ -647,10 +665,12 @@
           <t>Sécurité[15]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlorure de calcium est irritant car il dessèche la peau. C'est pourquoi il doit être manipulé avec des gants. Sa manipulation est donc peu dangereuse, mais il ne doit pas être ingéré car c’est un solide (pastilles généralement) qui se dissout dans l’eau. Comme il réagit de manière exothermique avec l'eau, il peut occasionner des brûlures de la bouche ou de l'œsophage.
-L’ingestion de solution concentrée ou de produit solide peut causer une irritation gastro-intestinale ou une ulcération[16].
+L’ingestion de solution concentrée ou de produit solide peut causer une irritation gastro-intestinale ou une ulcération.
 La prise de chlorure de calcium comprend d’autres effets secondaires possibles :
 un goût crayeux (poussiéreux, calcaire) dans la bouche ;
 des bouffées de chaleur ;
